--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8248898C-6791-2041-B68F-7B39A7E68134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC459105-F0EF-F44C-BB99-1D110C34227C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="3140" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="8760" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="REFSET" sheetId="3" r:id="rId1"/>
+    <sheet name="Refset" sheetId="4" r:id="rId1"/>
+    <sheet name="Working" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="86">
   <si>
     <t>accession-ID</t>
   </si>
@@ -136,6 +137,153 @@
   </si>
   <si>
     <t>NK</t>
+  </si>
+  <si>
+    <t>NC_043446</t>
+  </si>
+  <si>
+    <t>NC_028650</t>
+  </si>
+  <si>
+    <t>NC_038545</t>
+  </si>
+  <si>
+    <t>KJ495710</t>
+  </si>
+  <si>
+    <t>NC_039050</t>
+  </si>
+  <si>
+    <t>NC_039049</t>
+  </si>
+  <si>
+    <t>NC_038544</t>
+  </si>
+  <si>
+    <t>NC_029797</t>
+  </si>
+  <si>
+    <t>NC_001539</t>
+  </si>
+  <si>
+    <t>PBuV</t>
+  </si>
+  <si>
+    <t>RatBuV</t>
+  </si>
+  <si>
+    <t>RPV1</t>
+  </si>
+  <si>
+    <t>TuV</t>
+  </si>
+  <si>
+    <t>CutaV</t>
+  </si>
+  <si>
+    <t>WuBuV1</t>
+  </si>
+  <si>
+    <t>BuV1a</t>
+  </si>
+  <si>
+    <t>BtBuV1</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>sea otter parvovirus</t>
+  </si>
+  <si>
+    <t>canine parvovirus</t>
+  </si>
+  <si>
+    <t>megabat bufavirus 1</t>
+  </si>
+  <si>
+    <t>Mpulungu (shrew) bufavirus</t>
+  </si>
+  <si>
+    <t>bufavirus 1a (human)</t>
+  </si>
+  <si>
+    <t>Wuharv (rhesus) parvovirus 1</t>
+  </si>
+  <si>
+    <t>cutavirus (human)</t>
+  </si>
+  <si>
+    <t>tusavirus</t>
+  </si>
+  <si>
+    <t>minute virus of mice</t>
+  </si>
+  <si>
+    <t>rat parvovirus 1</t>
+  </si>
+  <si>
+    <t>rat bufavirus SY-2015</t>
+  </si>
+  <si>
+    <t>porcine parvovirus</t>
+  </si>
+  <si>
+    <t>porcine bufavirus; protoparvovirus (porcine)</t>
+  </si>
+  <si>
+    <t>Carnivore protoparvovirus</t>
+  </si>
+  <si>
+    <t>Carnivore protoparvovirus 1</t>
+  </si>
+  <si>
+    <t>Chiropteran protoparvovirus 1</t>
+  </si>
+  <si>
+    <t>Primate protoparvovirus 1</t>
+  </si>
+  <si>
+    <t>Primate protoparvovirus 2</t>
+  </si>
+  <si>
+    <t>Primate protoparvovirus 3</t>
+  </si>
+  <si>
+    <t>Primate protoparvovirus 4</t>
+  </si>
+  <si>
+    <t>Rodent protoparvovirus 1</t>
+  </si>
+  <si>
+    <t>Rodent protoparvovirus 2</t>
+  </si>
+  <si>
+    <t>Rodent protoparvovirus 3</t>
+  </si>
+  <si>
+    <t>Ungulate protoparvovirus 1</t>
+  </si>
+  <si>
+    <t>Ungulate protoparvovirus 2</t>
+  </si>
+  <si>
+    <t>virus_other_name</t>
+  </si>
+  <si>
+    <t>Macaca</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Canis familiaris</t>
+  </si>
+  <si>
+    <t>Rattus familiaris</t>
+  </si>
+  <si>
+    <t>Pteropus vampyrus</t>
   </si>
 </sst>
 </file>
@@ -2395,11 +2543,695 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E163DB52-39ED-234A-A41F-5D0AEBD442F4}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:L7"/>
+      <selection activeCell="A16" sqref="A3:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2529,44 +3361,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>18</v>
@@ -2607,16 +3401,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
@@ -2643,47 +3437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L7">
-    <sortCondition ref="H2:H7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L6">
+    <sortCondition ref="H2:H6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC459105-F0EF-F44C-BB99-1D110C34227C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD829E8-FC67-CB4E-B016-4BA0E200E92B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="8760" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15660" yWindow="4600" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Refset" sheetId="4" r:id="rId1"/>
@@ -2547,12 +2547,12 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A3:A16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD829E8-FC67-CB4E-B016-4BA0E200E92B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC9985-CA25-824E-8DBD-100948623D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="4600" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="2760" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Refset" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="97">
   <si>
     <t>accession-ID</t>
   </si>
@@ -284,6 +284,39 @@
   </si>
   <si>
     <t>Pteropus vampyrus</t>
+  </si>
+  <si>
+    <t>D00623</t>
+  </si>
+  <si>
+    <t>Kilham rat virus</t>
+  </si>
+  <si>
+    <t>AF321230</t>
+  </si>
+  <si>
+    <t>KilhamRat</t>
+  </si>
+  <si>
+    <t>JX505432</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H-1 parvovirus</t>
+  </si>
+  <si>
+    <t>BtHp-PV</t>
+  </si>
+  <si>
+    <t>KJ641666</t>
+  </si>
+  <si>
+    <t>Bat parvovirus isolate BtHp-PV/GD2012</t>
+  </si>
+  <si>
+    <t>Hipposideros pomona</t>
   </si>
 </sst>
 </file>
@@ -2544,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E163DB52-39ED-234A-A41F-5D0AEBD442F4}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F14" sqref="A1:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3218,6 +3251,170 @@
         <v>36</v>
       </c>
       <c r="M16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC9985-CA25-824E-8DBD-100948623D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCDAD4C-59E6-504B-B748-28D0DD9F7232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2840" yWindow="2760" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="98">
   <si>
     <t>accession-ID</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Hipposideros pomona</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -2580,7 +2583,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:M20"/>
+      <selection activeCell="B6" sqref="A1:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2600,7 +2603,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCDAD4C-59E6-504B-B748-28D0DD9F7232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A631A25-89B6-F844-958E-80D885517909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2760" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="2500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Refset" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="100">
   <si>
     <t>accession-ID</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>sequenceID</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -2580,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E163DB52-39ED-234A-A41F-5D0AEBD442F4}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:M20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2591,17 +2597,17 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -2618,31 +2624,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -2659,11 +2668,11 @@
         <v>83</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H2" s="3" t="s">
         <v>36</v>
       </c>
@@ -2679,11 +2688,14 @@
       <c r="L2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="b">
+      <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -2700,11 +2712,11 @@
         <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" s="3" t="s">
         <v>36</v>
       </c>
@@ -2720,11 +2732,14 @@
       <c r="L3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="3" t="b">
+      <c r="M3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -2737,15 +2752,15 @@
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
@@ -2761,11 +2776,14 @@
       <c r="L4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="3" t="b">
+      <c r="M4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2782,11 +2800,11 @@
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" s="3" t="s">
         <v>36</v>
       </c>
@@ -2802,11 +2820,14 @@
       <c r="L5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="3" t="b">
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -2823,11 +2844,11 @@
         <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
@@ -2843,11 +2864,14 @@
       <c r="L6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="3" t="b">
+      <c r="M6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -2864,11 +2888,11 @@
         <v>81</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H7" s="3" t="s">
         <v>36</v>
       </c>
@@ -2884,11 +2908,14 @@
       <c r="L7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="3" t="b">
+      <c r="M7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2905,11 +2932,11 @@
         <v>82</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>36</v>
       </c>
@@ -2925,11 +2952,14 @@
       <c r="L8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="3" t="b">
+      <c r="M8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2946,11 +2976,11 @@
         <v>82</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>36</v>
       </c>
@@ -2966,11 +2996,14 @@
       <c r="L9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="3" t="b">
+      <c r="M9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -2987,11 +3020,11 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
@@ -3007,11 +3040,14 @@
       <c r="L10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="3" t="b">
+      <c r="M10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -3028,11 +3064,11 @@
         <v>84</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
@@ -3048,11 +3084,14 @@
       <c r="L11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="3" t="b">
+      <c r="M11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -3069,11 +3108,11 @@
         <v>84</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>36</v>
       </c>
@@ -3089,11 +3128,14 @@
       <c r="L12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="3" t="b">
+      <c r="M12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3110,11 +3152,11 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H13" s="3" t="s">
         <v>36</v>
       </c>
@@ -3130,11 +3172,14 @@
       <c r="L13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="3" t="b">
+      <c r="M13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -3151,11 +3196,11 @@
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3171,11 +3216,14 @@
       <c r="L14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="3" t="b">
+      <c r="M14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -3192,11 +3240,11 @@
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>36</v>
       </c>
@@ -3212,11 +3260,14 @@
       <c r="L15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="3" t="b">
+      <c r="M15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -3233,11 +3284,11 @@
         <v>27</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H16" s="3" t="s">
         <v>36</v>
       </c>
@@ -3253,11 +3304,14 @@
       <c r="L16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="3" t="b">
+      <c r="M16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>86</v>
       </c>
@@ -3274,11 +3328,11 @@
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>36</v>
       </c>
@@ -3294,11 +3348,14 @@
       <c r="L17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="3" t="b">
+      <c r="M17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>88</v>
       </c>
@@ -3315,11 +3372,11 @@
         <v>84</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>36</v>
       </c>
@@ -3335,11 +3392,14 @@
       <c r="L18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="3" t="b">
+      <c r="M18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
@@ -3356,11 +3416,11 @@
         <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H19" s="3" t="s">
         <v>36</v>
       </c>
@@ -3376,11 +3436,14 @@
       <c r="L19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="3" t="b">
+      <c r="M19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
@@ -3397,11 +3460,11 @@
         <v>96</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
@@ -3417,7 +3480,10 @@
       <c r="L20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="3" t="b">
+      <c r="M20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A631A25-89B6-F844-958E-80D885517909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2102C49-BF86-C044-922C-B4E77CEA1283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16080" yWindow="2500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
   <si>
     <t>accession-ID</t>
   </si>
@@ -326,6 +326,21 @@
   </si>
   <si>
     <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>MZ813278</t>
+  </si>
+  <si>
+    <t>Newlavirus</t>
+  </si>
+  <si>
+    <t>Newlavirus strain FX25</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Vulpes vulpes</t>
   </si>
 </sst>
 </file>
@@ -2586,16 +2601,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E163DB52-39ED-234A-A41F-5D0AEBD442F4}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
@@ -2607,7 +2622,7 @@
     <col min="13" max="13" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -2647,11 +2662,8 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -2691,11 +2703,8 @@
       <c r="M2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -2735,11 +2744,8 @@
       <c r="M3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -2779,11 +2785,8 @@
       <c r="M4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2823,11 +2826,8 @@
       <c r="M5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -2867,11 +2867,8 @@
       <c r="M6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -2911,11 +2908,8 @@
       <c r="M7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2955,11 +2949,8 @@
       <c r="M8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2999,11 +2990,8 @@
       <c r="M9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -3043,11 +3031,8 @@
       <c r="M10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -3087,11 +3072,8 @@
       <c r="M11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -3131,11 +3113,8 @@
       <c r="M12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3175,11 +3154,8 @@
       <c r="M13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -3219,11 +3195,8 @@
       <c r="M14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -3263,11 +3236,8 @@
       <c r="M15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -3307,11 +3277,8 @@
       <c r="M16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>86</v>
       </c>
@@ -3351,11 +3318,8 @@
       <c r="M17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>88</v>
       </c>
@@ -3395,11 +3359,8 @@
       <c r="M18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
@@ -3439,11 +3400,8 @@
       <c r="M19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="3" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
@@ -3483,8 +3441,46 @@
       <c r="M20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="3" t="b">
-        <v>0</v>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2102C49-BF86-C044-922C-B4E77CEA1283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B27B4B0-52D2-094B-95CD-8EC9D945CEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16080" yWindow="2500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2604,7 +2604,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B27B4B0-52D2-094B-95CD-8EC9D945CEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE3876-0B3F-A348-8A94-88B4907947B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16080" yWindow="2500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="106">
   <si>
     <t>accession-ID</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Vulpes vulpes</t>
+  </si>
+  <si>
+    <t>Neoprotoparvovirus</t>
   </si>
 </sst>
 </file>
@@ -2601,7 +2604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E163DB52-39ED-234A-A41F-5D0AEBD442F4}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
@@ -2686,22 +2689,22 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2727,22 +2730,22 @@
         <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2768,22 +2771,22 @@
         <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2809,22 +2812,22 @@
         <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2850,22 +2853,22 @@
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2891,22 +2894,22 @@
         <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2932,22 +2935,22 @@
         <v>14</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2973,22 +2976,22 @@
         <v>14</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -3014,22 +3017,22 @@
         <v>14</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -3055,22 +3058,22 @@
         <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -3096,22 +3099,22 @@
         <v>14</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -3137,22 +3140,22 @@
         <v>14</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -3178,22 +3181,22 @@
         <v>14</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -3219,22 +3222,22 @@
         <v>14</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -3260,22 +3263,22 @@
         <v>14</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -3301,22 +3304,22 @@
         <v>14</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -3342,22 +3345,22 @@
         <v>14</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -3383,22 +3386,22 @@
         <v>14</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -3424,22 +3427,22 @@
         <v>14</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -3465,22 +3468,63 @@
         <v>14</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE3876-0B3F-A348-8A94-88B4907947B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DF647B-281C-9249-913E-F228DD140A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16080" yWindow="2500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2607,7 +2607,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DF647B-281C-9249-913E-F228DD140A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E7070-F6CC-8F48-98A6-EDBE9B630E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="2500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20320" yWindow="3560" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Refset" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="113">
   <si>
     <t>accession-ID</t>
   </si>
@@ -344,6 +344,27 @@
   </si>
   <si>
     <t>Neoprotoparvovirus</t>
+  </si>
+  <si>
+    <t>XM_039762195</t>
+  </si>
+  <si>
+    <t>Polypterus senegalus</t>
+  </si>
+  <si>
+    <t>Gray bichir protoparvovirus</t>
+  </si>
+  <si>
+    <t>GbPV</t>
+  </si>
+  <si>
+    <t>Ichthyprotoparvovirus</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>XM_039761881</t>
   </si>
 </sst>
 </file>
@@ -2604,10 +2625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E163DB52-39ED-234A-A41F-5D0AEBD442F4}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3525,6 +3546,88 @@
       </c>
       <c r="M22" s="3" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/genus/proto-refseqs-side-data.xlsx
+++ b/tabular/genus/proto-refseqs-side-data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E7070-F6CC-8F48-98A6-EDBE9B630E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B3FE3B-141A-3042-AA09-D63F793328D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20320" yWindow="3560" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Refset" sheetId="4" r:id="rId1"/>
     <sheet name="Working" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="113">
   <si>
     <t>accession-ID</t>
   </si>
@@ -2625,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E163DB52-39ED-234A-A41F-5D0AEBD442F4}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3507,129 +3508,6 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3640,7 +3518,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3858,4 +3736,101 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE90D644-601C-144B-8DA0-C01E910B3804}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>